--- a/published-data/fonds-solidarite/fds-2020-12-24/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-24/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>76252</v>
+        <v>76253</v>
       </c>
       <c r="D267" t="n">
-        <v>183183502</v>
+        <v>183187718</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
